--- a/data/global_cushion_traits.xlsx
+++ b/data/global_cushion_traits.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20060" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22960" windowHeight="13060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -120,12 +121,57 @@
   <si>
     <t>Silene acaulis</t>
   </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>Gemmi</t>
+  </si>
+  <si>
+    <t>Carex firma</t>
+  </si>
+  <si>
+    <t>Sierra Nevada North Low</t>
+  </si>
+  <si>
+    <t>Plantago holosteum</t>
+  </si>
+  <si>
+    <t>Sierra Nevada South Low</t>
+  </si>
+  <si>
+    <t>Arenaria tetraquetra amabilis</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>Sierra Nevada South High</t>
+  </si>
+  <si>
+    <t>Sierra Nevada North High</t>
+  </si>
+  <si>
+    <t>Sierra Nevada_N_verylow</t>
+  </si>
+  <si>
+    <t>Sierra Nevada North quitelow</t>
+  </si>
+  <si>
+    <t>Sierra Nevada North quitehigh</t>
+  </si>
+  <si>
+    <t>terminal branch length (mm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -161,6 +207,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,11 +270,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -242,6 +314,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -567,13 +647,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="10.6640625" style="8"/>
+    <col min="11" max="11" width="10.6640625" style="6"/>
+    <col min="12" max="13" width="10.6640625" style="8"/>
+    <col min="14" max="14" width="10.6640625" style="12"/>
+    <col min="15" max="16" width="10.6640625" style="8"/>
+    <col min="17" max="17" width="10.6640625" style="12"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
@@ -603,29 +691,29 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
+      <c r="Q1" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>19</v>
@@ -674,25 +762,25 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="8">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="8">
         <v>6</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="12">
         <v>24</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="8">
         <v>3</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="8">
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="12">
         <v>3</v>
       </c>
       <c r="R2">
@@ -742,25 +830,25 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="8">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="8">
         <v>7</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>11</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="12">
         <v>29</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="8">
         <v>4</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="8">
         <v>2</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="12">
         <v>4</v>
       </c>
       <c r="R3">
@@ -810,25 +898,25 @@
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="8">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="8">
         <v>8</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>15</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="12">
         <v>34</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="8">
         <v>3</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="8">
         <v>2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="12">
         <v>3</v>
       </c>
       <c r="R4">
@@ -878,25 +966,25 @@
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="8">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="8">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="8">
         <v>8</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="12">
         <v>26</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="8">
         <v>3</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="8">
         <v>2</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="12">
         <v>5</v>
       </c>
       <c r="R5">
@@ -946,25 +1034,25 @@
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="8">
         <v>5</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="8">
         <v>12</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="12">
         <v>31</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="8">
         <v>4</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="8">
         <v>2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="12">
         <v>5</v>
       </c>
       <c r="R6">
@@ -1014,25 +1102,25 @@
       <c r="I7">
         <v>6</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="8">
         <v>7</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="8">
         <v>16</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="12">
         <v>30</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="8">
         <v>4</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="8">
         <v>2</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="12">
         <v>6</v>
       </c>
       <c r="R7">
@@ -1082,25 +1170,25 @@
       <c r="I8">
         <v>7</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>3</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>5</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="8">
         <v>12</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="12">
         <v>23</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="8">
         <v>6</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="8">
         <v>3</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="12">
         <v>4</v>
       </c>
       <c r="R8">
@@ -1150,25 +1238,25 @@
       <c r="I9">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8">
         <v>3</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="8">
         <v>5</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="8">
         <v>10</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="12">
         <v>30</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="8">
         <v>5</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="8">
         <v>3</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="12">
         <v>6</v>
       </c>
       <c r="R9">
@@ -1218,25 +1306,25 @@
       <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <v>10</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="8">
         <v>14</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="12">
         <v>29</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="8">
         <v>4</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="8">
         <v>2</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="12">
         <v>7</v>
       </c>
       <c r="R10">
@@ -1286,25 +1374,25 @@
       <c r="I11">
         <v>10</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="8">
         <v>2</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="8">
         <v>8</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="8">
         <v>11</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="12">
         <v>27</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="8">
         <v>4</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="8">
         <v>2</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="12">
         <v>6</v>
       </c>
       <c r="R11">
@@ -1354,25 +1442,25 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="8">
         <v>4</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="8">
         <v>8</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="8">
         <v>3</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="12">
         <v>16</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="8">
         <v>6</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="8">
         <v>3</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="12">
         <v>5</v>
       </c>
       <c r="R12">
@@ -1422,25 +1510,25 @@
       <c r="I13">
         <v>2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="8">
         <v>4</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="8">
         <v>6</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="8">
         <v>5</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="12">
         <v>25</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="8">
         <v>5</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="8">
         <v>3</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="12">
         <v>6</v>
       </c>
       <c r="R13">
@@ -1490,25 +1578,25 @@
       <c r="I14">
         <v>3</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="8">
         <v>6</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="8">
         <v>8</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="8">
         <v>3</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="12">
         <v>18</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="8">
         <v>7</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="8">
         <v>2</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="12">
         <v>8</v>
       </c>
       <c r="R14">
@@ -1558,25 +1646,25 @@
       <c r="I15">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="8">
         <v>6</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="8">
         <v>11</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="8">
         <v>3</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="12">
         <v>17</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="8">
         <v>7</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="8">
         <v>3</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="12">
         <v>6</v>
       </c>
       <c r="R15">
@@ -1626,25 +1714,25 @@
       <c r="I16">
         <v>5</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="8">
         <v>6</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="8">
         <v>8</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="8">
         <v>5</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="12">
         <v>30</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="8">
         <v>10</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="8">
         <v>4</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="12">
         <v>8</v>
       </c>
       <c r="R16">
@@ -1694,25 +1782,25 @@
       <c r="I17">
         <v>6</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="8">
         <v>6</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="8">
         <v>8</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="8">
         <v>3</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="12">
         <v>18</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="8">
         <v>8</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="8">
         <v>2</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="12">
         <v>9</v>
       </c>
       <c r="R17">
@@ -1762,25 +1850,25 @@
       <c r="I18">
         <v>7</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="8">
         <v>7</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="8">
         <v>11</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="8">
         <v>6</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="12">
         <v>30</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="8">
         <v>7</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="8">
         <v>2</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="12">
         <v>6</v>
       </c>
       <c r="R18">
@@ -1830,25 +1918,25 @@
       <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="8">
         <v>4</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="8">
         <v>6</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="8">
         <v>4</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="12">
         <v>28</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="8">
         <v>6</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="8">
         <v>2</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="12">
         <v>5</v>
       </c>
       <c r="R19">
@@ -1898,25 +1986,25 @@
       <c r="I20">
         <v>9</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="8">
         <v>8</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="8">
         <v>11</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="8">
         <v>3</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="12">
         <v>18</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="8">
         <v>11</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="8">
         <v>4</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="12">
         <v>9</v>
       </c>
       <c r="R20">
@@ -1966,25 +2054,25 @@
       <c r="I21">
         <v>10</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="8">
         <v>11</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="8">
         <v>12</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="8">
         <v>3</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="12">
         <v>24</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="8">
         <v>12</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="8">
         <v>4</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="12">
         <v>11</v>
       </c>
       <c r="R21">
@@ -2034,22 +2122,22 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="8">
         <v>2</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="8">
         <v>2</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="8">
         <v>8</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="12">
         <v>3</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="8">
         <v>1</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2081,22 +2169,22 @@
       <c r="I23">
         <v>2</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="8">
         <v>2</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="8">
         <v>2</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="8">
         <v>4</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="12">
         <v>2</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="8">
         <v>1</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2128,22 +2216,22 @@
       <c r="I24">
         <v>3</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="8">
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="8">
         <v>3</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="8">
         <v>5</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="12">
         <v>3</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="8">
         <v>2</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2175,22 +2263,22 @@
       <c r="I25">
         <v>4</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="8">
         <v>1</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="8">
         <v>4</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="8">
         <v>5</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="12">
         <v>3</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="8">
         <v>2</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2222,22 +2310,22 @@
       <c r="I26">
         <v>5</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="8">
         <v>1</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="8">
         <v>6</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="8">
         <v>3</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="12">
         <v>3</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="8">
         <v>1</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2269,22 +2357,22 @@
       <c r="I27">
         <v>6</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="8">
         <v>1</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="8">
         <v>2</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="8">
         <v>5</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="12">
         <v>2</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="8">
         <v>1</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2316,22 +2404,22 @@
       <c r="I28">
         <v>7</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="8">
         <v>3</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="8">
         <v>3</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="8">
         <v>8</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="12">
         <v>2</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="8">
         <v>1</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2363,22 +2451,22 @@
       <c r="I29">
         <v>8</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="8">
         <v>2</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="8">
         <v>2</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="8">
         <v>7</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="12">
         <v>2</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="8">
         <v>1</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2410,22 +2498,22 @@
       <c r="I30">
         <v>9</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="8">
         <v>5</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="8">
         <v>3</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="8">
         <v>7</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="12">
         <v>2</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="8">
         <v>1</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2457,22 +2545,22 @@
       <c r="I31">
         <v>10</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="8">
         <v>3</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="8">
         <v>3</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="8">
         <v>6</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="12">
         <v>2</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="8">
         <v>1</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2501,22 +2589,22 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="8">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="9">
         <v>2</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="8">
         <v>4</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="8">
         <v>2</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="8">
         <v>1</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="12">
         <v>4</v>
       </c>
     </row>
@@ -2545,22 +2633,22 @@
       <c r="I33">
         <v>2</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="8">
         <v>4</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="9">
         <v>7</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="8">
         <v>5</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="8">
         <v>2</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="8">
         <v>1</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2589,22 +2677,22 @@
       <c r="I34">
         <v>3</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="8">
         <v>3</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="9">
         <v>2</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="8">
         <v>6</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="8">
         <v>3</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="8">
         <v>1</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2633,22 +2721,22 @@
       <c r="I35">
         <v>4</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="8">
         <v>1</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="9">
         <v>2</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="8">
         <v>5</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="8">
         <v>2</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="8">
         <v>1</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2677,22 +2765,22 @@
       <c r="I36">
         <v>5</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="8">
         <v>2</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="9">
         <v>2</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="8">
         <v>5</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="8">
         <v>3</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="8">
         <v>2</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2721,22 +2809,22 @@
       <c r="I37">
         <v>6</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="8">
         <v>2</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="9">
         <v>2</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="8">
         <v>7</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="8">
         <v>4</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="8">
         <v>1</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2765,22 +2853,22 @@
       <c r="I38">
         <v>7</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="8">
         <v>3</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="9">
         <v>3</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="8">
         <v>7</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="8">
         <v>5</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="8">
         <v>2</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2809,22 +2897,22 @@
       <c r="I39">
         <v>8</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="8">
         <v>1</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="9">
         <v>2</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="8">
         <v>5</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="8">
         <v>4</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="8">
         <v>2</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2853,22 +2941,22 @@
       <c r="I40">
         <v>9</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="8">
         <v>2</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="9">
         <v>3</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="8">
         <v>5</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="8">
         <v>5</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="8">
         <v>2</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2897,23 +2985,4937 @@
       <c r="I41">
         <v>10</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="8">
         <v>1</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="9">
         <v>2</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="8">
         <v>7</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="8">
         <v>4</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="8">
         <v>1</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>2009</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>50.506701</v>
+      </c>
+      <c r="E42">
+        <v>0.97859499999999999</v>
+      </c>
+      <c r="G42">
+        <v>2300</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" s="8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K42" s="6">
+        <v>13.15086206896552</v>
+      </c>
+      <c r="L42" s="8">
+        <v>68.2</v>
+      </c>
+      <c r="M42" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="N42" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="O42" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P42" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>2009</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <v>50.506701</v>
+      </c>
+      <c r="E43">
+        <v>0.97859499999999999</v>
+      </c>
+      <c r="G43">
+        <v>2300</v>
+      </c>
+      <c r="H43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43" s="8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K43" s="6">
+        <v>11.741379310344829</v>
+      </c>
+      <c r="L43" s="8">
+        <v>94.2</v>
+      </c>
+      <c r="M43" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="N43" s="12">
+        <v>15</v>
+      </c>
+      <c r="O43" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="P43" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>2009</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44">
+        <v>50.506701</v>
+      </c>
+      <c r="E44">
+        <v>0.97859499999999999</v>
+      </c>
+      <c r="G44">
+        <v>2300</v>
+      </c>
+      <c r="H44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44" s="8">
+        <v>16</v>
+      </c>
+      <c r="K44" s="6">
+        <v>12.995542347696878</v>
+      </c>
+      <c r="L44" s="8">
+        <v>93.799999999999983</v>
+      </c>
+      <c r="M44" s="8">
+        <v>1.5625</v>
+      </c>
+      <c r="N44" s="12">
+        <v>17.1875</v>
+      </c>
+      <c r="O44" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="P44" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>2009</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45">
+        <v>50.506701</v>
+      </c>
+      <c r="E45">
+        <v>0.97859499999999999</v>
+      </c>
+      <c r="G45">
+        <v>2300</v>
+      </c>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45" s="8">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K45" s="6">
+        <v>11.027687296416937</v>
+      </c>
+      <c r="L45" s="8">
+        <v>134.6</v>
+      </c>
+      <c r="M45" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="N45" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="O45" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P45" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>2009</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46">
+        <v>50.506701</v>
+      </c>
+      <c r="E46">
+        <v>0.97859499999999999</v>
+      </c>
+      <c r="G46">
+        <v>2300</v>
+      </c>
+      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="K46" s="6">
+        <v>12.442680776014109</v>
+      </c>
+      <c r="L46" s="8">
+        <v>107.19999999999999</v>
+      </c>
+      <c r="M46" s="8">
+        <v>1.875</v>
+      </c>
+      <c r="N46" s="12">
+        <v>15</v>
+      </c>
+      <c r="O46" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="P46" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>2009</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47">
+        <v>50.506701</v>
+      </c>
+      <c r="E47">
+        <v>0.97859499999999999</v>
+      </c>
+      <c r="G47">
+        <v>2300</v>
+      </c>
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47" s="8">
+        <v>18.8</v>
+      </c>
+      <c r="K47" s="6">
+        <v>10.842381786339756</v>
+      </c>
+      <c r="L47" s="8">
+        <v>98</v>
+      </c>
+      <c r="M47" s="8">
+        <v>1.9375</v>
+      </c>
+      <c r="N47" s="12">
+        <v>17.4375</v>
+      </c>
+      <c r="O47" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P47" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>2009</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48">
+        <v>50.506701</v>
+      </c>
+      <c r="E48">
+        <v>0.97859499999999999</v>
+      </c>
+      <c r="G48">
+        <v>2300</v>
+      </c>
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48" s="8">
+        <v>16</v>
+      </c>
+      <c r="K48" s="6">
+        <v>11.900778210116732</v>
+      </c>
+      <c r="L48" s="8">
+        <v>87.800000000000011</v>
+      </c>
+      <c r="M48" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="N48" s="12">
+        <v>20.25</v>
+      </c>
+      <c r="O48" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="P48" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>2009</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49">
+        <v>50.506701</v>
+      </c>
+      <c r="E49">
+        <v>0.97859499999999999</v>
+      </c>
+      <c r="G49">
+        <v>2300</v>
+      </c>
+      <c r="H49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49" s="8">
+        <v>14.200000000000001</v>
+      </c>
+      <c r="K49" s="6">
+        <v>11.189393939393938</v>
+      </c>
+      <c r="L49" s="8">
+        <v>92.4</v>
+      </c>
+      <c r="M49" s="8">
+        <v>2.0625</v>
+      </c>
+      <c r="N49" s="12">
+        <v>16.5</v>
+      </c>
+      <c r="O49" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="P49" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>2009</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50">
+        <v>50.506701</v>
+      </c>
+      <c r="E50">
+        <v>0.97859499999999999</v>
+      </c>
+      <c r="G50">
+        <v>2300</v>
+      </c>
+      <c r="H50" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
+      <c r="J50" s="8">
+        <v>14.2</v>
+      </c>
+      <c r="K50" s="6">
+        <v>9.2751004016064247</v>
+      </c>
+      <c r="L50" s="8">
+        <v>85.199999999999989</v>
+      </c>
+      <c r="M50" s="8">
+        <v>1.875</v>
+      </c>
+      <c r="N50" s="12">
+        <v>13.125</v>
+      </c>
+      <c r="O50" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="P50" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>2009</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51">
+        <v>50.506701</v>
+      </c>
+      <c r="E51">
+        <v>0.97859499999999999</v>
+      </c>
+      <c r="G51">
+        <v>2300</v>
+      </c>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51" s="8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K51" s="6">
+        <v>9.2878787878787872</v>
+      </c>
+      <c r="L51" s="8">
+        <v>107.6</v>
+      </c>
+      <c r="M51" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="N51" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="O51" s="8">
+        <v>3</v>
+      </c>
+      <c r="P51" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>2009</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52">
+        <v>50.507872999999996</v>
+      </c>
+      <c r="E52">
+        <v>0.98136900000000005</v>
+      </c>
+      <c r="G52">
+        <v>2300</v>
+      </c>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="K52" s="6">
+        <v>8.4347826086956506</v>
+      </c>
+      <c r="L52" s="8">
+        <v>64.600000000000009</v>
+      </c>
+      <c r="M52" s="8">
+        <v>6.75</v>
+      </c>
+      <c r="N52" s="12">
+        <v>60.75</v>
+      </c>
+      <c r="O52" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="P52" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <v>2009</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53">
+        <v>50.507872999999996</v>
+      </c>
+      <c r="E53">
+        <v>0.98136900000000005</v>
+      </c>
+      <c r="G53">
+        <v>2300</v>
+      </c>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" s="8">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="K53" s="6">
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="L53" s="8">
+        <v>39.6</v>
+      </c>
+      <c r="M53" s="8">
+        <v>9.25</v>
+      </c>
+      <c r="N53" s="12">
+        <v>111</v>
+      </c>
+      <c r="O53" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P53" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <v>2009</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>50.507872999999996</v>
+      </c>
+      <c r="E54">
+        <v>0.98136900000000005</v>
+      </c>
+      <c r="G54">
+        <v>2300</v>
+      </c>
+      <c r="H54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54" s="8">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="K54" s="6">
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="L54" s="8">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="M54" s="8">
+        <v>11</v>
+      </c>
+      <c r="N54" s="12">
+        <v>110</v>
+      </c>
+      <c r="O54" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="P54" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <v>2009</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55">
+        <v>50.507872999999996</v>
+      </c>
+      <c r="E55">
+        <v>0.98136900000000005</v>
+      </c>
+      <c r="G55">
+        <v>2300</v>
+      </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="K55" s="6">
+        <v>7.5178571428571441</v>
+      </c>
+      <c r="L55" s="8">
+        <v>57</v>
+      </c>
+      <c r="M55" s="8">
+        <v>7.75</v>
+      </c>
+      <c r="N55" s="12">
+        <v>69.75</v>
+      </c>
+      <c r="O55" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="P55" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56">
+        <v>2009</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56">
+        <v>50.507872999999996</v>
+      </c>
+      <c r="E56">
+        <v>0.98136900000000005</v>
+      </c>
+      <c r="G56">
+        <v>2300</v>
+      </c>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K56" s="6">
+        <v>10.409836065573769</v>
+      </c>
+      <c r="L56" s="8">
+        <v>69.2</v>
+      </c>
+      <c r="M56" s="8">
+        <v>8</v>
+      </c>
+      <c r="N56" s="12">
+        <v>64</v>
+      </c>
+      <c r="O56" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="P56" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="Q56" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57">
+        <v>2009</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57">
+        <v>50.507872999999996</v>
+      </c>
+      <c r="E57">
+        <v>0.98136900000000005</v>
+      </c>
+      <c r="G57">
+        <v>2300</v>
+      </c>
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+      <c r="J57" s="8">
+        <v>5</v>
+      </c>
+      <c r="K57" s="6">
+        <v>10.327272727272726</v>
+      </c>
+      <c r="L57" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="M57" s="8">
+        <v>7</v>
+      </c>
+      <c r="N57" s="12">
+        <v>63</v>
+      </c>
+      <c r="O57" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="P57" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58">
+        <v>2009</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58">
+        <v>50.507872999999996</v>
+      </c>
+      <c r="E58">
+        <v>0.98136900000000005</v>
+      </c>
+      <c r="G58">
+        <v>2300</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58">
+        <v>7</v>
+      </c>
+      <c r="J58" s="8">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="K58" s="6">
+        <v>7.5862068965517251</v>
+      </c>
+      <c r="L58" s="8">
+        <v>52</v>
+      </c>
+      <c r="M58" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="N58" s="12">
+        <v>42.75</v>
+      </c>
+      <c r="O58" s="8">
+        <v>2</v>
+      </c>
+      <c r="P58" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59">
+        <v>2009</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59">
+        <v>50.507872999999996</v>
+      </c>
+      <c r="E59">
+        <v>0.98136900000000005</v>
+      </c>
+      <c r="G59">
+        <v>2300</v>
+      </c>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="K59" s="6">
+        <v>5.1171171171171164</v>
+      </c>
+      <c r="L59" s="8">
+        <v>52.8</v>
+      </c>
+      <c r="M59" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="N59" s="12">
+        <v>67.5</v>
+      </c>
+      <c r="O59" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="P59" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60">
+        <v>2009</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60">
+        <v>50.507872999999996</v>
+      </c>
+      <c r="E60">
+        <v>0.98136900000000005</v>
+      </c>
+      <c r="G60">
+        <v>2300</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
+      </c>
+      <c r="J60" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="K60" s="6">
+        <v>10.315789473684211</v>
+      </c>
+      <c r="L60" s="8">
+        <v>63.599999999999994</v>
+      </c>
+      <c r="M60" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="N60" s="12">
+        <v>55.25</v>
+      </c>
+      <c r="O60" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P60" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="Q60" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61">
+        <v>2009</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61">
+        <v>50.507872999999996</v>
+      </c>
+      <c r="E61">
+        <v>0.98136900000000005</v>
+      </c>
+      <c r="G61">
+        <v>2300</v>
+      </c>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="K61" s="6">
+        <v>10.094736842105263</v>
+      </c>
+      <c r="L61" s="8">
+        <v>44.8</v>
+      </c>
+      <c r="M61" s="8">
+        <v>8</v>
+      </c>
+      <c r="N61" s="12">
+        <v>64</v>
+      </c>
+      <c r="O61" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="P61" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62">
+        <v>2009</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62">
+        <v>50.507872999999996</v>
+      </c>
+      <c r="E62">
+        <v>0.98136900000000005</v>
+      </c>
+      <c r="G62">
+        <v>2300</v>
+      </c>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62">
+        <v>11</v>
+      </c>
+      <c r="K62" s="6">
+        <v>6.8111111111111109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63">
+        <v>2010</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E63">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G63">
+        <v>2715</v>
+      </c>
+      <c r="H63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" s="8">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="K63" s="6">
+        <v>6.5475306130000002</v>
+      </c>
+      <c r="L63" s="8">
+        <v>37.599999999999994</v>
+      </c>
+      <c r="M63" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="N63" s="12">
+        <v>31.5</v>
+      </c>
+      <c r="O63" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P63" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="Q63" s="12">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64">
+        <v>2010</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E64">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G64">
+        <v>2715</v>
+      </c>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64" s="8">
+        <v>6</v>
+      </c>
+      <c r="K64" s="6">
+        <v>7.0947501117757019</v>
+      </c>
+      <c r="L64" s="8">
+        <v>41.2</v>
+      </c>
+      <c r="M64" s="8">
+        <v>2.5625</v>
+      </c>
+      <c r="N64" s="12">
+        <v>64.0625</v>
+      </c>
+      <c r="O64" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P64" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="Q64" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65">
+        <v>2010</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E65">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G65">
+        <v>2715</v>
+      </c>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="K65" s="6">
+        <v>7.8365094846153838</v>
+      </c>
+      <c r="L65" s="8">
+        <v>41</v>
+      </c>
+      <c r="M65" s="8">
+        <v>1.8125</v>
+      </c>
+      <c r="N65" s="12">
+        <v>48.9375</v>
+      </c>
+      <c r="O65" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="P65" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="Q65" s="12">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66">
+        <v>2010</v>
+      </c>
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E66">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G66">
+        <v>2715</v>
+      </c>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="K66" s="6">
+        <v>8.6308617785496171</v>
+      </c>
+      <c r="L66" s="8">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="M66" s="8">
+        <v>2.0625</v>
+      </c>
+      <c r="N66" s="12">
+        <v>53.625</v>
+      </c>
+      <c r="O66" s="8">
+        <v>1.58</v>
+      </c>
+      <c r="P66" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="Q66" s="12">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67">
+        <v>2010</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E67">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G67">
+        <v>2715</v>
+      </c>
+      <c r="H67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K67" s="6">
+        <v>7.3929980799999999</v>
+      </c>
+      <c r="L67" s="8">
+        <v>41.4</v>
+      </c>
+      <c r="M67" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="N67" s="12">
+        <v>84</v>
+      </c>
+      <c r="O67" s="8">
+        <v>1.88</v>
+      </c>
+      <c r="P67" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="Q67" s="12">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68">
+        <v>2010</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E68">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G68">
+        <v>2715</v>
+      </c>
+      <c r="H68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+      <c r="J68" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="L68" s="8">
+        <v>55.599999999999994</v>
+      </c>
+      <c r="M68" s="8">
+        <v>3.375</v>
+      </c>
+      <c r="N68" s="12">
+        <v>74.25</v>
+      </c>
+      <c r="O68" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="P68" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="Q68" s="12">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69">
+        <v>2010</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E69">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G69">
+        <v>2715</v>
+      </c>
+      <c r="H69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69">
+        <v>7</v>
+      </c>
+      <c r="J69" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="L69" s="8">
+        <v>45.199999999999996</v>
+      </c>
+      <c r="M69" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="N69" s="12">
+        <v>45</v>
+      </c>
+      <c r="O69" s="8">
+        <v>2.27</v>
+      </c>
+      <c r="P69" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70">
+        <v>2010</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E70">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G70">
+        <v>2715</v>
+      </c>
+      <c r="H70" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70">
+        <v>8</v>
+      </c>
+      <c r="J70" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="L70" s="8">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M70" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="N70" s="12">
+        <v>28</v>
+      </c>
+      <c r="O70" s="8">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="P70" s="8">
+        <v>1.84</v>
+      </c>
+      <c r="Q70" s="12">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71">
+        <v>2010</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E71">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G71">
+        <v>2715</v>
+      </c>
+      <c r="H71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71">
+        <v>9</v>
+      </c>
+      <c r="J71" s="8">
+        <v>14</v>
+      </c>
+      <c r="L71" s="8">
+        <v>50</v>
+      </c>
+      <c r="M71" s="8">
+        <v>1.625</v>
+      </c>
+      <c r="N71" s="12">
+        <v>29.25</v>
+      </c>
+      <c r="O71" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P71" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72">
+        <v>2010</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E72">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G72">
+        <v>2715</v>
+      </c>
+      <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+      <c r="J72" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="L72" s="8">
+        <v>54</v>
+      </c>
+      <c r="M72" s="8">
+        <v>3.9375</v>
+      </c>
+      <c r="N72" s="12">
+        <v>59.0625</v>
+      </c>
+      <c r="O72" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="P72" s="8">
+        <v>1.38</v>
+      </c>
+      <c r="Q72" s="12">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73">
+        <v>2010</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73">
+        <v>36.997210000000003</v>
+      </c>
+      <c r="E73">
+        <v>-3.3125100000000001</v>
+      </c>
+      <c r="G73">
+        <v>2576</v>
+      </c>
+      <c r="H73" t="s">
+        <v>39</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K73" s="6">
+        <v>35.483799779999998</v>
+      </c>
+      <c r="L73" s="8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="M73" s="8">
+        <v>52</v>
+      </c>
+      <c r="N73" s="12">
+        <v>832</v>
+      </c>
+      <c r="O73" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="P73" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74">
+        <v>2010</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74">
+        <v>36.997210000000003</v>
+      </c>
+      <c r="E74">
+        <v>-3.3125100000000001</v>
+      </c>
+      <c r="G74">
+        <v>2576</v>
+      </c>
+      <c r="H74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="K74" s="6">
+        <v>27.500759425454543</v>
+      </c>
+      <c r="L74" s="8">
+        <v>29.2</v>
+      </c>
+      <c r="M74" s="8">
+        <v>52.5</v>
+      </c>
+      <c r="N74" s="12">
+        <v>840</v>
+      </c>
+      <c r="O74" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="P74" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="Q74" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75">
+        <v>2010</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75">
+        <v>36.997210000000003</v>
+      </c>
+      <c r="E75">
+        <v>-3.3125100000000001</v>
+      </c>
+      <c r="G75">
+        <v>2576</v>
+      </c>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="K75" s="6">
+        <v>29.390622039999997</v>
+      </c>
+      <c r="L75" s="8">
+        <v>40</v>
+      </c>
+      <c r="M75" s="8">
+        <v>60</v>
+      </c>
+      <c r="N75" s="12">
+        <v>960</v>
+      </c>
+      <c r="O75" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="P75" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="Q75" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76">
+        <v>2010</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76">
+        <v>36.997210000000003</v>
+      </c>
+      <c r="E76">
+        <v>-3.3125100000000001</v>
+      </c>
+      <c r="G76">
+        <v>2576</v>
+      </c>
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K76" s="6">
+        <v>34.278197767272729</v>
+      </c>
+      <c r="L76" s="8">
+        <v>30.4</v>
+      </c>
+      <c r="M76" s="8">
+        <v>42</v>
+      </c>
+      <c r="N76" s="12">
+        <v>504</v>
+      </c>
+      <c r="O76" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="P76" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="Q76" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77">
+        <v>2010</v>
+      </c>
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77">
+        <v>36.997210000000003</v>
+      </c>
+      <c r="E77">
+        <v>-3.3125100000000001</v>
+      </c>
+      <c r="G77">
+        <v>2576</v>
+      </c>
+      <c r="H77" t="s">
+        <v>39</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K77" s="6">
+        <v>34.374397670476185</v>
+      </c>
+      <c r="L77" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M77" s="8">
+        <v>33</v>
+      </c>
+      <c r="N77" s="12">
+        <v>330</v>
+      </c>
+      <c r="O77" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="P77" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="Q77" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78">
+        <v>2010</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78">
+        <v>36.997210000000003</v>
+      </c>
+      <c r="E78">
+        <v>-3.3125100000000001</v>
+      </c>
+      <c r="G78">
+        <v>2576</v>
+      </c>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+      <c r="J78" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="L78" s="8">
+        <v>29</v>
+      </c>
+      <c r="M78" s="8">
+        <v>76.5</v>
+      </c>
+      <c r="N78" s="12">
+        <v>765</v>
+      </c>
+      <c r="O78" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="P78" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="Q78" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79">
+        <v>2010</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79">
+        <v>36.997210000000003</v>
+      </c>
+      <c r="E79">
+        <v>-3.3125100000000001</v>
+      </c>
+      <c r="G79">
+        <v>2576</v>
+      </c>
+      <c r="H79" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="J79" s="8">
+        <v>1</v>
+      </c>
+      <c r="L79" s="8">
+        <v>31.200000000000003</v>
+      </c>
+      <c r="M79" s="8">
+        <v>33</v>
+      </c>
+      <c r="N79" s="12">
+        <v>396</v>
+      </c>
+      <c r="O79" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="P79" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="Q79" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80">
+        <v>2010</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80">
+        <v>36.997210000000003</v>
+      </c>
+      <c r="E80">
+        <v>-3.3125100000000001</v>
+      </c>
+      <c r="G80">
+        <v>2576</v>
+      </c>
+      <c r="H80" t="s">
+        <v>39</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
+      <c r="J80" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L80" s="8">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M80" s="8">
+        <v>56</v>
+      </c>
+      <c r="N80" s="12">
+        <v>672</v>
+      </c>
+      <c r="O80" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="P80" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Q80" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81">
+        <v>2010</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81">
+        <v>36.997210000000003</v>
+      </c>
+      <c r="E81">
+        <v>-3.3125100000000001</v>
+      </c>
+      <c r="G81">
+        <v>2576</v>
+      </c>
+      <c r="H81" t="s">
+        <v>39</v>
+      </c>
+      <c r="I81">
+        <v>9</v>
+      </c>
+      <c r="J81" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="L81" s="8">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="M81" s="8">
+        <v>39</v>
+      </c>
+      <c r="N81" s="12">
+        <v>546</v>
+      </c>
+      <c r="O81" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="P81" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="Q81" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82">
+        <v>2010</v>
+      </c>
+      <c r="B82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82">
+        <v>36.997210000000003</v>
+      </c>
+      <c r="E82">
+        <v>-3.3125100000000001</v>
+      </c>
+      <c r="G82">
+        <v>2576</v>
+      </c>
+      <c r="H82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="L82" s="8">
+        <v>23.799999999999997</v>
+      </c>
+      <c r="M82" s="8">
+        <v>42.25</v>
+      </c>
+      <c r="N82" s="12">
+        <v>591.5</v>
+      </c>
+      <c r="O82" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="P82" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83">
+        <v>2010</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83">
+        <v>37.036409999999997</v>
+      </c>
+      <c r="E83">
+        <v>-3.3032499999999998</v>
+      </c>
+      <c r="G83">
+        <v>3112</v>
+      </c>
+      <c r="H83" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" s="8">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="K83" s="6">
+        <v>21.553122829333333</v>
+      </c>
+      <c r="L83" s="8">
+        <v>47.199999999999996</v>
+      </c>
+      <c r="M83" s="8">
+        <v>60</v>
+      </c>
+      <c r="N83" s="12">
+        <v>1080</v>
+      </c>
+      <c r="O83" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="P83" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q83" s="12">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84">
+        <v>2010</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84">
+        <v>37.036409999999997</v>
+      </c>
+      <c r="E84">
+        <v>-3.3032499999999998</v>
+      </c>
+      <c r="G84">
+        <v>3112</v>
+      </c>
+      <c r="H84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K84" s="6">
+        <v>31.859752888888885</v>
+      </c>
+      <c r="L84" s="8">
+        <v>52.599999999999994</v>
+      </c>
+      <c r="M84" s="8">
+        <v>36</v>
+      </c>
+      <c r="N84" s="12">
+        <v>432</v>
+      </c>
+      <c r="O84" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P84" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="Q84" s="12">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85">
+        <v>2010</v>
+      </c>
+      <c r="B85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85">
+        <v>37.036409999999997</v>
+      </c>
+      <c r="E85">
+        <v>-3.3032499999999998</v>
+      </c>
+      <c r="G85">
+        <v>3112</v>
+      </c>
+      <c r="H85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="K85" s="6">
+        <v>35.227783908571425</v>
+      </c>
+      <c r="L85" s="8">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="M85" s="8">
+        <v>35.75</v>
+      </c>
+      <c r="N85" s="12">
+        <v>572</v>
+      </c>
+      <c r="O85" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="P85" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="Q85" s="12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86">
+        <v>2010</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86">
+        <v>37.036409999999997</v>
+      </c>
+      <c r="E86">
+        <v>-3.3032499999999998</v>
+      </c>
+      <c r="G86">
+        <v>3112</v>
+      </c>
+      <c r="H86" t="s">
+        <v>39</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="K86" s="6">
+        <v>29.231323275555553</v>
+      </c>
+      <c r="L86" s="8">
+        <v>38</v>
+      </c>
+      <c r="M86" s="8">
+        <v>42.25</v>
+      </c>
+      <c r="N86" s="12">
+        <v>591.5</v>
+      </c>
+      <c r="O86" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P86" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="Q86" s="12">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87">
+        <v>2010</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87">
+        <v>37.036409999999997</v>
+      </c>
+      <c r="E87">
+        <v>-3.3032499999999998</v>
+      </c>
+      <c r="G87">
+        <v>3112</v>
+      </c>
+      <c r="H87" t="s">
+        <v>39</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="J87" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="K87" s="6">
+        <v>23.745472074999999</v>
+      </c>
+      <c r="L87" s="8">
+        <v>40.599999999999994</v>
+      </c>
+      <c r="M87" s="8">
+        <v>48.75</v>
+      </c>
+      <c r="N87" s="12">
+        <v>682.5</v>
+      </c>
+      <c r="O87" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="P87" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="Q87" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88">
+        <v>2010</v>
+      </c>
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88">
+        <v>37.036409999999997</v>
+      </c>
+      <c r="E88">
+        <v>-3.3032499999999998</v>
+      </c>
+      <c r="G88">
+        <v>3112</v>
+      </c>
+      <c r="H88" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+      <c r="J88" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="L88" s="8">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M88" s="8">
+        <v>52.5</v>
+      </c>
+      <c r="N88" s="12">
+        <v>630</v>
+      </c>
+      <c r="O88" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="P88" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q88" s="12">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89">
+        <v>2010</v>
+      </c>
+      <c r="B89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89">
+        <v>37.036409999999997</v>
+      </c>
+      <c r="E89">
+        <v>-3.3032499999999998</v>
+      </c>
+      <c r="G89">
+        <v>3112</v>
+      </c>
+      <c r="H89" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="L89" s="8">
+        <v>50.8</v>
+      </c>
+      <c r="M89" s="8">
+        <v>56.25</v>
+      </c>
+      <c r="N89" s="12">
+        <v>675</v>
+      </c>
+      <c r="O89" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="P89" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q89" s="12">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90">
+        <v>2010</v>
+      </c>
+      <c r="B90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90">
+        <v>37.036409999999997</v>
+      </c>
+      <c r="E90">
+        <v>-3.3032499999999998</v>
+      </c>
+      <c r="G90">
+        <v>3112</v>
+      </c>
+      <c r="H90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90">
+        <v>8</v>
+      </c>
+      <c r="J90" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L90" s="8">
+        <v>45.599999999999994</v>
+      </c>
+      <c r="M90" s="8">
+        <v>76</v>
+      </c>
+      <c r="N90" s="12">
+        <v>760</v>
+      </c>
+      <c r="O90" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="P90" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="Q90" s="12">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91">
+        <v>2010</v>
+      </c>
+      <c r="B91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91">
+        <v>37.036409999999997</v>
+      </c>
+      <c r="E91">
+        <v>-3.3032499999999998</v>
+      </c>
+      <c r="G91">
+        <v>3112</v>
+      </c>
+      <c r="H91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91">
+        <v>9</v>
+      </c>
+      <c r="J91" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="L91" s="8">
+        <v>53.8</v>
+      </c>
+      <c r="M91" s="8">
+        <v>56</v>
+      </c>
+      <c r="N91" s="12">
+        <v>896</v>
+      </c>
+      <c r="O91" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="P91" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="Q91" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92">
+        <v>2010</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92">
+        <v>37.036409999999997</v>
+      </c>
+      <c r="E92">
+        <v>-3.3032499999999998</v>
+      </c>
+      <c r="G92">
+        <v>3112</v>
+      </c>
+      <c r="H92" t="s">
+        <v>39</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+      <c r="J92" s="8">
+        <v>3</v>
+      </c>
+      <c r="L92" s="8">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M92" s="8">
+        <v>48.75</v>
+      </c>
+      <c r="N92" s="12">
+        <v>487.5</v>
+      </c>
+      <c r="O92" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="P92" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="Q92" s="12">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93">
+        <v>2010</v>
+      </c>
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E93">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G93">
+        <v>2715</v>
+      </c>
+      <c r="H93" t="s">
+        <v>39</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="K93" s="6">
+        <v>19.023948600000001</v>
+      </c>
+      <c r="L93" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="M93" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="N93" s="12">
+        <v>330</v>
+      </c>
+      <c r="O93" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P93" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="Q93" s="12">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94">
+        <v>2010</v>
+      </c>
+      <c r="B94" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E94">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G94">
+        <v>2715</v>
+      </c>
+      <c r="H94" t="s">
+        <v>39</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="K94" s="6">
+        <v>21.304616756800002</v>
+      </c>
+      <c r="L94" s="8">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M94" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="N94" s="12">
+        <v>225</v>
+      </c>
+      <c r="O94" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="P94" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="Q94" s="12">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95">
+        <v>2010</v>
+      </c>
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E95">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G95">
+        <v>2715</v>
+      </c>
+      <c r="H95" t="s">
+        <v>39</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="K95" s="6">
+        <v>16.676065393684208</v>
+      </c>
+      <c r="L95" s="8">
+        <v>31.400000000000002</v>
+      </c>
+      <c r="M95" s="8">
+        <v>18</v>
+      </c>
+      <c r="N95" s="12">
+        <v>216</v>
+      </c>
+      <c r="O95" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P95" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="Q95" s="12">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96">
+        <v>2010</v>
+      </c>
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E96">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G96">
+        <v>2715</v>
+      </c>
+      <c r="H96" t="s">
+        <v>39</v>
+      </c>
+      <c r="I96">
+        <v>4</v>
+      </c>
+      <c r="J96" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="K96" s="6">
+        <v>16.940165976842106</v>
+      </c>
+      <c r="L96" s="8">
+        <v>40</v>
+      </c>
+      <c r="M96" s="8">
+        <v>20.25</v>
+      </c>
+      <c r="N96" s="12">
+        <v>202.5</v>
+      </c>
+      <c r="O96" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P96" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="Q96" s="12">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97">
+        <v>2010</v>
+      </c>
+      <c r="B97" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E97">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G97">
+        <v>2715</v>
+      </c>
+      <c r="H97" t="s">
+        <v>39</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="K97" s="6">
+        <v>16.459851179999998</v>
+      </c>
+      <c r="L97" s="8">
+        <v>38.199999999999996</v>
+      </c>
+      <c r="M97" s="8">
+        <v>18</v>
+      </c>
+      <c r="N97" s="12">
+        <v>252</v>
+      </c>
+      <c r="O97" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="P97" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="Q97" s="12">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98">
+        <v>2010</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E98">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G98">
+        <v>2715</v>
+      </c>
+      <c r="H98" t="s">
+        <v>39</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+      <c r="J98" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="L98" s="8">
+        <v>41</v>
+      </c>
+      <c r="M98" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="N98" s="12">
+        <v>135</v>
+      </c>
+      <c r="O98" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="P98" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="Q98" s="12">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99">
+        <v>2010</v>
+      </c>
+      <c r="B99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E99">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G99">
+        <v>2715</v>
+      </c>
+      <c r="H99" t="s">
+        <v>39</v>
+      </c>
+      <c r="I99">
+        <v>7</v>
+      </c>
+      <c r="J99" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="L99" s="8">
+        <v>29.2</v>
+      </c>
+      <c r="M99" s="8">
+        <v>32.5</v>
+      </c>
+      <c r="N99" s="12">
+        <v>195</v>
+      </c>
+      <c r="O99" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="P99" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="Q99" s="12">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100">
+        <v>2010</v>
+      </c>
+      <c r="B100" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E100">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G100">
+        <v>2715</v>
+      </c>
+      <c r="H100" t="s">
+        <v>39</v>
+      </c>
+      <c r="I100">
+        <v>8</v>
+      </c>
+      <c r="J100" s="8">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="L100" s="8">
+        <v>48.8</v>
+      </c>
+      <c r="M100" s="8">
+        <v>30.25</v>
+      </c>
+      <c r="N100" s="12">
+        <v>363</v>
+      </c>
+      <c r="O100" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="P100" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="Q100" s="12">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101">
+        <v>2010</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E101">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G101">
+        <v>2715</v>
+      </c>
+      <c r="H101" t="s">
+        <v>39</v>
+      </c>
+      <c r="I101">
+        <v>9</v>
+      </c>
+      <c r="J101" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="L101" s="8">
+        <v>30.8</v>
+      </c>
+      <c r="M101" s="8">
+        <v>30.25</v>
+      </c>
+      <c r="N101" s="12">
+        <v>302.5</v>
+      </c>
+      <c r="O101" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="P101" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="Q101" s="12">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102">
+        <v>2010</v>
+      </c>
+      <c r="B102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102">
+        <v>37.081339999999997</v>
+      </c>
+      <c r="E102">
+        <v>-3.3812700000000002</v>
+      </c>
+      <c r="G102">
+        <v>2715</v>
+      </c>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102">
+        <v>10</v>
+      </c>
+      <c r="J102" s="8">
+        <v>3</v>
+      </c>
+      <c r="L102" s="8">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="M102" s="8">
+        <v>24.75</v>
+      </c>
+      <c r="N102" s="12">
+        <v>297</v>
+      </c>
+      <c r="O102" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="P102" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="Q102" s="12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103">
+        <v>2010</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103">
+        <v>37.050820000000002</v>
+      </c>
+      <c r="E103">
+        <v>-3.3709600000000002</v>
+      </c>
+      <c r="G103">
+        <v>3239</v>
+      </c>
+      <c r="H103" t="s">
+        <v>39</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K103" s="6">
+        <v>17.053351941052632</v>
+      </c>
+      <c r="L103" s="8">
+        <v>39.6</v>
+      </c>
+      <c r="M103" s="8">
+        <v>52.5</v>
+      </c>
+      <c r="N103" s="12">
+        <v>630</v>
+      </c>
+      <c r="O103" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="P103" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="Q103" s="12">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104">
+        <v>2010</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104">
+        <v>37.050820000000002</v>
+      </c>
+      <c r="E104">
+        <v>-3.3709600000000002</v>
+      </c>
+      <c r="G104">
+        <v>3239</v>
+      </c>
+      <c r="H104" t="s">
+        <v>39</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K104" s="6">
+        <v>20.24542479030303</v>
+      </c>
+      <c r="L104" s="8">
+        <v>36.800000000000004</v>
+      </c>
+      <c r="M104" s="8">
+        <v>39</v>
+      </c>
+      <c r="N104" s="12">
+        <v>780</v>
+      </c>
+      <c r="O104" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="P104" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q104" s="12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105">
+        <v>2010</v>
+      </c>
+      <c r="B105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105">
+        <v>37.050820000000002</v>
+      </c>
+      <c r="E105">
+        <v>-3.3709600000000002</v>
+      </c>
+      <c r="G105">
+        <v>3239</v>
+      </c>
+      <c r="H105" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="K105" s="6">
+        <v>17.204266560000001</v>
+      </c>
+      <c r="L105" s="8">
+        <v>31</v>
+      </c>
+      <c r="M105" s="8">
+        <v>39</v>
+      </c>
+      <c r="N105" s="12">
+        <v>546</v>
+      </c>
+      <c r="O105" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="P105" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="Q105" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106">
+        <v>2010</v>
+      </c>
+      <c r="B106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106">
+        <v>37.050820000000002</v>
+      </c>
+      <c r="E106">
+        <v>-3.3709600000000002</v>
+      </c>
+      <c r="G106">
+        <v>3239</v>
+      </c>
+      <c r="H106" t="s">
+        <v>39</v>
+      </c>
+      <c r="I106">
+        <v>4</v>
+      </c>
+      <c r="J106" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="K106" s="6">
+        <v>17.622425816666667</v>
+      </c>
+      <c r="L106" s="8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="M106" s="8">
+        <v>33</v>
+      </c>
+      <c r="N106" s="12">
+        <v>594</v>
+      </c>
+      <c r="O106" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="P106" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="Q106" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107">
+        <v>2010</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107">
+        <v>37.050820000000002</v>
+      </c>
+      <c r="E107">
+        <v>-3.3709600000000002</v>
+      </c>
+      <c r="G107">
+        <v>3239</v>
+      </c>
+      <c r="H107" t="s">
+        <v>39</v>
+      </c>
+      <c r="I107">
+        <v>5</v>
+      </c>
+      <c r="J107" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="K107" s="6">
+        <v>20.723321083636364</v>
+      </c>
+      <c r="L107" s="8">
+        <v>38</v>
+      </c>
+      <c r="M107" s="8">
+        <v>42.25</v>
+      </c>
+      <c r="N107" s="12">
+        <v>591.5</v>
+      </c>
+      <c r="O107" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="P107" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="Q107" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108">
+        <v>2010</v>
+      </c>
+      <c r="B108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108">
+        <v>37.050820000000002</v>
+      </c>
+      <c r="E108">
+        <v>-3.3709600000000002</v>
+      </c>
+      <c r="G108">
+        <v>3239</v>
+      </c>
+      <c r="H108" t="s">
+        <v>39</v>
+      </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+      <c r="J108" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="L108" s="8">
+        <v>49.800000000000004</v>
+      </c>
+      <c r="M108" s="8">
+        <v>33</v>
+      </c>
+      <c r="N108" s="12">
+        <v>462</v>
+      </c>
+      <c r="O108" s="8">
+        <v>1.03</v>
+      </c>
+      <c r="P108" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="Q108" s="12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109">
+        <v>2010</v>
+      </c>
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109">
+        <v>37.050820000000002</v>
+      </c>
+      <c r="E109">
+        <v>-3.3709600000000002</v>
+      </c>
+      <c r="G109">
+        <v>3239</v>
+      </c>
+      <c r="H109" t="s">
+        <v>39</v>
+      </c>
+      <c r="I109">
+        <v>7</v>
+      </c>
+      <c r="J109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="L109" s="8">
+        <v>57.800000000000004</v>
+      </c>
+      <c r="M109" s="8">
+        <v>25</v>
+      </c>
+      <c r="N109" s="12">
+        <v>600</v>
+      </c>
+      <c r="O109" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="P109" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="Q109" s="12">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110">
+        <v>2010</v>
+      </c>
+      <c r="B110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110">
+        <v>37.050820000000002</v>
+      </c>
+      <c r="E110">
+        <v>-3.3709600000000002</v>
+      </c>
+      <c r="G110">
+        <v>3239</v>
+      </c>
+      <c r="H110" t="s">
+        <v>39</v>
+      </c>
+      <c r="I110">
+        <v>8</v>
+      </c>
+      <c r="J110" s="8">
+        <v>3.3999999999999995</v>
+      </c>
+      <c r="L110" s="8">
+        <v>44.800000000000004</v>
+      </c>
+      <c r="M110" s="8">
+        <v>36</v>
+      </c>
+      <c r="N110" s="12">
+        <v>360</v>
+      </c>
+      <c r="O110" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="P110" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="Q110" s="12">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111">
+        <v>2010</v>
+      </c>
+      <c r="B111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111">
+        <v>37.050820000000002</v>
+      </c>
+      <c r="E111">
+        <v>-3.3709600000000002</v>
+      </c>
+      <c r="G111">
+        <v>3239</v>
+      </c>
+      <c r="H111" t="s">
+        <v>39</v>
+      </c>
+      <c r="I111">
+        <v>9</v>
+      </c>
+      <c r="J111" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="L111" s="8">
+        <v>67.8</v>
+      </c>
+      <c r="M111" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="N111" s="12">
+        <v>315</v>
+      </c>
+      <c r="O111" s="8">
+        <v>1.26</v>
+      </c>
+      <c r="P111" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="Q111" s="12">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112">
+        <v>2010</v>
+      </c>
+      <c r="B112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112">
+        <v>37.050820000000002</v>
+      </c>
+      <c r="E112">
+        <v>-3.3709600000000002</v>
+      </c>
+      <c r="G112">
+        <v>3239</v>
+      </c>
+      <c r="H112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I112">
+        <v>10</v>
+      </c>
+      <c r="J112" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="L112" s="8">
+        <v>41.4</v>
+      </c>
+      <c r="M112" s="8">
+        <v>33</v>
+      </c>
+      <c r="N112" s="12">
+        <v>462</v>
+      </c>
+      <c r="O112" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="P112" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q112" s="12">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="15">
+      <c r="A113">
+        <v>2010</v>
+      </c>
+      <c r="B113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113">
+        <v>37.110219999999998</v>
+      </c>
+      <c r="E113">
+        <v>-3.40442</v>
+      </c>
+      <c r="G113">
+        <v>2315</v>
+      </c>
+      <c r="H113" t="s">
+        <v>39</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" s="8">
+        <v>17</v>
+      </c>
+      <c r="K113" s="4">
+        <v>15.949788789999999</v>
+      </c>
+      <c r="L113" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="M113" s="8">
+        <v>8</v>
+      </c>
+      <c r="N113" s="12">
+        <v>80</v>
+      </c>
+      <c r="O113" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="P113" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="Q113" s="12">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="15">
+      <c r="A114">
+        <v>2010</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" t="s">
+        <v>43</v>
+      </c>
+      <c r="D114">
+        <v>37.110219999999998</v>
+      </c>
+      <c r="E114">
+        <v>-3.40442</v>
+      </c>
+      <c r="G114">
+        <v>2315</v>
+      </c>
+      <c r="H114" t="s">
+        <v>39</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="K114" s="4">
+        <v>20.658153407272724</v>
+      </c>
+      <c r="L114" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="M114" s="8">
+        <v>12</v>
+      </c>
+      <c r="N114" s="12">
+        <v>120</v>
+      </c>
+      <c r="O114" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="P114" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="Q114" s="12">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="15">
+      <c r="A115">
+        <v>2010</v>
+      </c>
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115">
+        <v>37.110219999999998</v>
+      </c>
+      <c r="E115">
+        <v>-3.40442</v>
+      </c>
+      <c r="G115">
+        <v>2315</v>
+      </c>
+      <c r="H115" t="s">
+        <v>39</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115" s="8">
+        <v>10</v>
+      </c>
+      <c r="K115" s="4">
+        <v>19.036202351111108</v>
+      </c>
+      <c r="L115" s="8">
+        <v>18.799999999999997</v>
+      </c>
+      <c r="M115" s="8">
+        <v>13</v>
+      </c>
+      <c r="N115" s="12">
+        <v>130</v>
+      </c>
+      <c r="O115" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P115" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="Q115" s="12">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="15">
+      <c r="A116">
+        <v>2010</v>
+      </c>
+      <c r="B116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116">
+        <v>37.110219999999998</v>
+      </c>
+      <c r="E116">
+        <v>-3.40442</v>
+      </c>
+      <c r="G116">
+        <v>2315</v>
+      </c>
+      <c r="H116" t="s">
+        <v>39</v>
+      </c>
+      <c r="I116">
+        <v>4</v>
+      </c>
+      <c r="J116" s="8">
+        <v>16</v>
+      </c>
+      <c r="K116" s="4">
+        <v>24.568213989090903</v>
+      </c>
+      <c r="L116" s="8">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="M116" s="8">
+        <v>12</v>
+      </c>
+      <c r="N116" s="12">
+        <v>120</v>
+      </c>
+      <c r="O116" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="P116" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="Q116" s="12">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="15">
+      <c r="A117">
+        <v>2010</v>
+      </c>
+      <c r="B117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" t="s">
+        <v>43</v>
+      </c>
+      <c r="D117">
+        <v>37.110219999999998</v>
+      </c>
+      <c r="E117">
+        <v>-3.40442</v>
+      </c>
+      <c r="G117">
+        <v>2315</v>
+      </c>
+      <c r="H117" t="s">
+        <v>39</v>
+      </c>
+      <c r="I117">
+        <v>5</v>
+      </c>
+      <c r="J117" s="8">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4">
+        <v>32.019051653333335</v>
+      </c>
+      <c r="L117" s="8">
+        <v>31</v>
+      </c>
+      <c r="M117" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="N117" s="12">
+        <v>105</v>
+      </c>
+      <c r="O117" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="P117" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="Q117" s="12">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118">
+        <v>2010</v>
+      </c>
+      <c r="B118" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118">
+        <v>37.110219999999998</v>
+      </c>
+      <c r="E118">
+        <v>-3.40442</v>
+      </c>
+      <c r="G118">
+        <v>2315</v>
+      </c>
+      <c r="H118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I118">
+        <v>6</v>
+      </c>
+      <c r="J118" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="L118" s="8">
+        <v>45.599999999999994</v>
+      </c>
+      <c r="M118" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="N118" s="12">
+        <v>97.5</v>
+      </c>
+      <c r="O118" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="P118" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="Q118" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119">
+        <v>2010</v>
+      </c>
+      <c r="B119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" t="s">
+        <v>43</v>
+      </c>
+      <c r="D119">
+        <v>37.110219999999998</v>
+      </c>
+      <c r="E119">
+        <v>-3.40442</v>
+      </c>
+      <c r="G119">
+        <v>2315</v>
+      </c>
+      <c r="H119" t="s">
+        <v>39</v>
+      </c>
+      <c r="I119">
+        <v>7</v>
+      </c>
+      <c r="J119" s="8">
+        <v>29</v>
+      </c>
+      <c r="L119" s="8">
+        <v>50.4</v>
+      </c>
+      <c r="M119" s="8">
+        <v>5.75</v>
+      </c>
+      <c r="N119" s="12">
+        <v>69</v>
+      </c>
+      <c r="O119" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="P119" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="Q119" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120">
+        <v>2010</v>
+      </c>
+      <c r="B120" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120">
+        <v>37.110219999999998</v>
+      </c>
+      <c r="E120">
+        <v>-3.40442</v>
+      </c>
+      <c r="G120">
+        <v>2315</v>
+      </c>
+      <c r="H120" t="s">
+        <v>39</v>
+      </c>
+      <c r="I120">
+        <v>8</v>
+      </c>
+      <c r="J120" s="8">
+        <v>21.200000000000003</v>
+      </c>
+      <c r="L120" s="8">
+        <v>33</v>
+      </c>
+      <c r="M120" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="N120" s="12">
+        <v>78</v>
+      </c>
+      <c r="O120" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P120" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="Q120" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121">
+        <v>2010</v>
+      </c>
+      <c r="B121" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D121">
+        <v>37.110219999999998</v>
+      </c>
+      <c r="E121">
+        <v>-3.40442</v>
+      </c>
+      <c r="G121">
+        <v>2315</v>
+      </c>
+      <c r="H121" t="s">
+        <v>39</v>
+      </c>
+      <c r="I121">
+        <v>9</v>
+      </c>
+      <c r="J121" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="L121" s="8">
+        <v>29.8</v>
+      </c>
+      <c r="M121" s="8">
+        <v>9</v>
+      </c>
+      <c r="N121" s="12">
+        <v>144</v>
+      </c>
+      <c r="O121" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="P121" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122">
+        <v>2010</v>
+      </c>
+      <c r="B122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" t="s">
+        <v>43</v>
+      </c>
+      <c r="D122">
+        <v>37.110219999999998</v>
+      </c>
+      <c r="E122">
+        <v>-3.40442</v>
+      </c>
+      <c r="G122">
+        <v>2315</v>
+      </c>
+      <c r="H122" t="s">
+        <v>39</v>
+      </c>
+      <c r="I122">
+        <v>10</v>
+      </c>
+      <c r="J122" s="8">
+        <v>26.6</v>
+      </c>
+      <c r="L122" s="8">
+        <v>49</v>
+      </c>
+      <c r="M122" s="8">
+        <v>6.25</v>
+      </c>
+      <c r="N122" s="12">
+        <v>87.5</v>
+      </c>
+      <c r="O122" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="P122" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="Q122" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="15">
+      <c r="A123">
+        <v>2010</v>
+      </c>
+      <c r="B123" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123">
+        <v>37.098439999999997</v>
+      </c>
+      <c r="E123">
+        <v>-3.3888099999999999</v>
+      </c>
+      <c r="G123">
+        <v>2520</v>
+      </c>
+      <c r="H123" t="s">
+        <v>39</v>
+      </c>
+      <c r="I123" s="3">
+        <v>1</v>
+      </c>
+      <c r="J123" s="8">
+        <v>11</v>
+      </c>
+      <c r="K123" s="6">
+        <v>11.9122679</v>
+      </c>
+      <c r="L123" s="8">
+        <v>26.8</v>
+      </c>
+      <c r="M123" s="8">
+        <v>9.25</v>
+      </c>
+      <c r="N123" s="12">
+        <v>111</v>
+      </c>
+      <c r="O123" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P123" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="Q123" s="12">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="15">
+      <c r="A124">
+        <v>2010</v>
+      </c>
+      <c r="B124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124">
+        <v>37.098439999999997</v>
+      </c>
+      <c r="E124">
+        <v>-3.3888099999999999</v>
+      </c>
+      <c r="G124">
+        <v>2520</v>
+      </c>
+      <c r="H124" t="s">
+        <v>39</v>
+      </c>
+      <c r="I124" s="3">
+        <v>2</v>
+      </c>
+      <c r="J124" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="K124" s="6">
+        <v>41.155304319999992</v>
+      </c>
+      <c r="L124" s="8">
+        <v>23.4</v>
+      </c>
+      <c r="M124" s="8">
+        <v>7.75</v>
+      </c>
+      <c r="N124" s="12">
+        <v>93</v>
+      </c>
+      <c r="O124" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="P124" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="Q124" s="12">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="15">
+      <c r="A125">
+        <v>2010</v>
+      </c>
+      <c r="B125" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125">
+        <v>37.098439999999997</v>
+      </c>
+      <c r="E125">
+        <v>-3.3888099999999999</v>
+      </c>
+      <c r="G125">
+        <v>2520</v>
+      </c>
+      <c r="H125" t="s">
+        <v>39</v>
+      </c>
+      <c r="I125" s="3">
+        <v>3</v>
+      </c>
+      <c r="J125" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="K125" s="6">
+        <v>22.189593801818184</v>
+      </c>
+      <c r="L125" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M125" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="N125" s="12">
+        <v>69</v>
+      </c>
+      <c r="O125" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="P125" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="Q125" s="12">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="15">
+      <c r="A126">
+        <v>2010</v>
+      </c>
+      <c r="B126" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" t="s">
+        <v>44</v>
+      </c>
+      <c r="D126">
+        <v>37.098439999999997</v>
+      </c>
+      <c r="E126">
+        <v>-3.3888099999999999</v>
+      </c>
+      <c r="G126">
+        <v>2520</v>
+      </c>
+      <c r="H126" t="s">
+        <v>39</v>
+      </c>
+      <c r="I126" s="3">
+        <v>4</v>
+      </c>
+      <c r="J126" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="K126" s="6">
+        <v>17.092259616250001</v>
+      </c>
+      <c r="L126" s="8">
+        <v>21.200000000000003</v>
+      </c>
+      <c r="M126" s="8">
+        <v>10.25</v>
+      </c>
+      <c r="N126" s="12">
+        <v>123</v>
+      </c>
+      <c r="O126" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="P126" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="Q126" s="12">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="15">
+      <c r="A127">
+        <v>2010</v>
+      </c>
+      <c r="B127" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127">
+        <v>37.098439999999997</v>
+      </c>
+      <c r="E127">
+        <v>-3.3888099999999999</v>
+      </c>
+      <c r="G127">
+        <v>2520</v>
+      </c>
+      <c r="H127" t="s">
+        <v>39</v>
+      </c>
+      <c r="I127" s="3">
+        <v>5</v>
+      </c>
+      <c r="J127" s="8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K127" s="6">
+        <v>14.6045853955625</v>
+      </c>
+      <c r="L127" s="8">
+        <v>25.2</v>
+      </c>
+      <c r="M127" s="8">
+        <v>7.75</v>
+      </c>
+      <c r="N127" s="12">
+        <v>108.5</v>
+      </c>
+      <c r="O127" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="P127" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="Q127" s="12">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="15">
+      <c r="A128">
+        <v>2010</v>
+      </c>
+      <c r="B128" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128">
+        <v>37.098439999999997</v>
+      </c>
+      <c r="E128">
+        <v>-3.3888099999999999</v>
+      </c>
+      <c r="G128">
+        <v>2520</v>
+      </c>
+      <c r="H128" t="s">
+        <v>39</v>
+      </c>
+      <c r="I128" s="3">
+        <v>6</v>
+      </c>
+      <c r="J128" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="L128" s="8">
+        <v>16.8</v>
+      </c>
+      <c r="M128" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="N128" s="12">
+        <v>75</v>
+      </c>
+      <c r="O128" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="P128" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="Q128" s="12">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="15">
+      <c r="A129">
+        <v>2010</v>
+      </c>
+      <c r="B129" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129">
+        <v>37.098439999999997</v>
+      </c>
+      <c r="E129">
+        <v>-3.3888099999999999</v>
+      </c>
+      <c r="G129">
+        <v>2520</v>
+      </c>
+      <c r="H129" t="s">
+        <v>39</v>
+      </c>
+      <c r="I129" s="3">
+        <v>7</v>
+      </c>
+      <c r="J129" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="L129" s="8">
+        <v>26.200000000000003</v>
+      </c>
+      <c r="M129" s="8">
+        <v>6</v>
+      </c>
+      <c r="N129" s="12">
+        <v>60</v>
+      </c>
+      <c r="O129" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="P129" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="Q129" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="15">
+      <c r="A130">
+        <v>2010</v>
+      </c>
+      <c r="B130" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130">
+        <v>37.098439999999997</v>
+      </c>
+      <c r="E130">
+        <v>-3.3888099999999999</v>
+      </c>
+      <c r="G130">
+        <v>2520</v>
+      </c>
+      <c r="H130" t="s">
+        <v>39</v>
+      </c>
+      <c r="I130" s="3">
+        <v>8</v>
+      </c>
+      <c r="J130" s="8">
+        <v>8</v>
+      </c>
+      <c r="L130" s="8">
+        <v>21.8</v>
+      </c>
+      <c r="M130" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="N130" s="12">
+        <v>138</v>
+      </c>
+      <c r="O130" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="P130" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Q130" s="12">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="15">
+      <c r="A131">
+        <v>2010</v>
+      </c>
+      <c r="B131" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" t="s">
+        <v>44</v>
+      </c>
+      <c r="D131">
+        <v>37.098439999999997</v>
+      </c>
+      <c r="E131">
+        <v>-3.3888099999999999</v>
+      </c>
+      <c r="G131">
+        <v>2520</v>
+      </c>
+      <c r="H131" t="s">
+        <v>39</v>
+      </c>
+      <c r="I131" s="3">
+        <v>9</v>
+      </c>
+      <c r="J131" s="8">
+        <v>9</v>
+      </c>
+      <c r="L131" s="8">
+        <v>29.2</v>
+      </c>
+      <c r="M131" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="N131" s="12">
+        <v>175</v>
+      </c>
+      <c r="O131" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="P131" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q131" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="15">
+      <c r="A132">
+        <v>2010</v>
+      </c>
+      <c r="B132" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" t="s">
+        <v>44</v>
+      </c>
+      <c r="D132">
+        <v>37.098439999999997</v>
+      </c>
+      <c r="E132">
+        <v>-3.3888099999999999</v>
+      </c>
+      <c r="G132">
+        <v>2520</v>
+      </c>
+      <c r="H132" t="s">
+        <v>39</v>
+      </c>
+      <c r="I132" s="3">
+        <v>10</v>
+      </c>
+      <c r="J132" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L132" s="8">
+        <v>20.6</v>
+      </c>
+      <c r="M132" s="8">
+        <v>9.25</v>
+      </c>
+      <c r="N132" s="12">
+        <v>111</v>
+      </c>
+      <c r="O132" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="P132" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="Q132" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="15">
+      <c r="A133">
+        <v>2010</v>
+      </c>
+      <c r="B133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133">
+        <v>37.068350000000002</v>
+      </c>
+      <c r="E133">
+        <v>-3.375</v>
+      </c>
+      <c r="G133">
+        <v>3010</v>
+      </c>
+      <c r="H133" t="s">
+        <v>39</v>
+      </c>
+      <c r="I133" s="3">
+        <v>1</v>
+      </c>
+      <c r="J133" s="10">
+        <v>5</v>
+      </c>
+      <c r="K133" s="4">
+        <v>18.358211268292681</v>
+      </c>
+      <c r="L133" s="10">
+        <v>35.4</v>
+      </c>
+      <c r="M133" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="N133" s="12">
+        <v>360</v>
+      </c>
+      <c r="O133" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P133" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="Q133" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="15">
+      <c r="A134">
+        <v>2010</v>
+      </c>
+      <c r="B134" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134">
+        <v>37.068350000000002</v>
+      </c>
+      <c r="E134">
+        <v>-3.375</v>
+      </c>
+      <c r="G134">
+        <v>3010</v>
+      </c>
+      <c r="H134" t="s">
+        <v>39</v>
+      </c>
+      <c r="I134" s="3">
+        <v>2</v>
+      </c>
+      <c r="J134" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="K134" s="4">
+        <v>19.769815082105261</v>
+      </c>
+      <c r="L134" s="10">
+        <v>29.2</v>
+      </c>
+      <c r="M134" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="N134" s="12">
+        <v>330</v>
+      </c>
+      <c r="O134" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P134" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="Q134" s="12">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="15">
+      <c r="A135">
+        <v>2010</v>
+      </c>
+      <c r="B135" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135">
+        <v>37.068350000000002</v>
+      </c>
+      <c r="E135">
+        <v>-3.375</v>
+      </c>
+      <c r="G135">
+        <v>3010</v>
+      </c>
+      <c r="H135" t="s">
+        <v>39</v>
+      </c>
+      <c r="I135" s="3">
+        <v>3</v>
+      </c>
+      <c r="J135" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="K135" s="4">
+        <v>20.071644319999997</v>
+      </c>
+      <c r="L135" s="10">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="M135" s="8">
+        <v>16</v>
+      </c>
+      <c r="N135" s="12">
+        <v>256</v>
+      </c>
+      <c r="O135" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="P135" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="Q135" s="12">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="15">
+      <c r="A136">
+        <v>2010</v>
+      </c>
+      <c r="B136" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" t="s">
+        <v>45</v>
+      </c>
+      <c r="D136">
+        <v>37.068350000000002</v>
+      </c>
+      <c r="E136">
+        <v>-3.375</v>
+      </c>
+      <c r="G136">
+        <v>3010</v>
+      </c>
+      <c r="H136" t="s">
+        <v>39</v>
+      </c>
+      <c r="I136" s="3">
+        <v>4</v>
+      </c>
+      <c r="J136" s="10">
+        <v>7</v>
+      </c>
+      <c r="K136" s="4">
+        <v>19.628887459999998</v>
+      </c>
+      <c r="L136" s="10">
+        <v>23.4</v>
+      </c>
+      <c r="M136" s="8">
+        <v>25</v>
+      </c>
+      <c r="N136" s="12">
+        <v>250</v>
+      </c>
+      <c r="O136" s="8">
+        <v>1.23</v>
+      </c>
+      <c r="P136" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="Q136" s="12">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="15">
+      <c r="A137">
+        <v>2010</v>
+      </c>
+      <c r="B137" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137">
+        <v>37.068350000000002</v>
+      </c>
+      <c r="E137">
+        <v>-3.375</v>
+      </c>
+      <c r="G137">
+        <v>3010</v>
+      </c>
+      <c r="H137" t="s">
+        <v>39</v>
+      </c>
+      <c r="I137" s="3">
+        <v>5</v>
+      </c>
+      <c r="J137" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="K137" s="4">
+        <v>23.101941270909091</v>
+      </c>
+      <c r="L137" s="10">
+        <v>35.4</v>
+      </c>
+      <c r="M137" s="8">
+        <v>24.75</v>
+      </c>
+      <c r="N137" s="12">
+        <v>445.5</v>
+      </c>
+      <c r="O137" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="P137" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="Q137" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="15">
+      <c r="A138">
+        <v>2010</v>
+      </c>
+      <c r="B138" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138">
+        <v>37.068350000000002</v>
+      </c>
+      <c r="E138">
+        <v>-3.375</v>
+      </c>
+      <c r="G138">
+        <v>3010</v>
+      </c>
+      <c r="H138" t="s">
+        <v>39</v>
+      </c>
+      <c r="I138" s="3">
+        <v>6</v>
+      </c>
+      <c r="J138" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="K138" s="4"/>
+      <c r="L138" s="10">
+        <v>30</v>
+      </c>
+      <c r="M138" s="8">
+        <v>38.5</v>
+      </c>
+      <c r="N138" s="12">
+        <v>539</v>
+      </c>
+      <c r="O138" s="8">
+        <v>1.32</v>
+      </c>
+      <c r="P138" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="Q138" s="12">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="15">
+      <c r="A139">
+        <v>2010</v>
+      </c>
+      <c r="B139" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139">
+        <v>37.068350000000002</v>
+      </c>
+      <c r="E139">
+        <v>-3.375</v>
+      </c>
+      <c r="G139">
+        <v>3010</v>
+      </c>
+      <c r="H139" t="s">
+        <v>39</v>
+      </c>
+      <c r="I139" s="3">
+        <v>7</v>
+      </c>
+      <c r="J139" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K139" s="4"/>
+      <c r="L139" s="10">
+        <v>39</v>
+      </c>
+      <c r="M139" s="8">
+        <v>32.5</v>
+      </c>
+      <c r="N139" s="12">
+        <v>455</v>
+      </c>
+      <c r="O139" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="P139" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="Q139" s="12">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="15">
+      <c r="A140">
+        <v>2010</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140">
+        <v>37.068350000000002</v>
+      </c>
+      <c r="E140">
+        <v>-3.375</v>
+      </c>
+      <c r="G140">
+        <v>3010</v>
+      </c>
+      <c r="H140" t="s">
+        <v>39</v>
+      </c>
+      <c r="I140" s="3">
+        <v>8</v>
+      </c>
+      <c r="J140" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="K140" s="4"/>
+      <c r="L140" s="10">
+        <v>29.2</v>
+      </c>
+      <c r="M140" s="8">
+        <v>30.25</v>
+      </c>
+      <c r="N140" s="12">
+        <v>363</v>
+      </c>
+      <c r="O140" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="P140" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q140" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" ht="15">
+      <c r="A141">
+        <v>2010</v>
+      </c>
+      <c r="B141" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141">
+        <v>37.068350000000002</v>
+      </c>
+      <c r="E141">
+        <v>-3.375</v>
+      </c>
+      <c r="G141">
+        <v>3010</v>
+      </c>
+      <c r="H141" t="s">
+        <v>39</v>
+      </c>
+      <c r="I141" s="3">
+        <v>9</v>
+      </c>
+      <c r="J141" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K141" s="4"/>
+      <c r="L141" s="10">
+        <v>47.800000000000004</v>
+      </c>
+      <c r="M141" s="8">
+        <v>30</v>
+      </c>
+      <c r="N141" s="12">
+        <v>480</v>
+      </c>
+      <c r="O141" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="P141" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q141" s="12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="15">
+      <c r="A142">
+        <v>2010</v>
+      </c>
+      <c r="B142" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142">
+        <v>37.068350000000002</v>
+      </c>
+      <c r="E142">
+        <v>-3.375</v>
+      </c>
+      <c r="G142">
+        <v>3010</v>
+      </c>
+      <c r="H142" t="s">
+        <v>39</v>
+      </c>
+      <c r="I142" s="3">
+        <v>10</v>
+      </c>
+      <c r="J142" s="10">
+        <v>5</v>
+      </c>
+      <c r="K142" s="4"/>
+      <c r="L142" s="10">
+        <v>16.599999999999998</v>
+      </c>
+      <c r="M142" s="8">
+        <v>25</v>
+      </c>
+      <c r="N142" s="12">
+        <v>300</v>
+      </c>
+      <c r="O142" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="P142" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="Q142" s="12">
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
@@ -2925,4 +7927,64 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>